--- a/trunk/MinhChung/Tai/Scheduler.xlsx
+++ b/trunk/MinhChung/Tai/Scheduler.xlsx
@@ -264,7 +264,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="52">
   <si>
     <t>Project</t>
   </si>
@@ -376,16 +376,6 @@
     <t>Hoàn thành</t>
   </si>
   <si>
-    <t>23/09/2012</t>
-  </si>
-  <si>
-    <t>Tạo csdl về sách</t>
-  </si>
-  <si>
-    <t>Thiết kế csdl,tao khóa ngoại,
- thử chức năng insert</t>
-  </si>
-  <si>
     <t>Chưa hoàn
  thành</t>
   </si>
@@ -397,6 +387,47 @@
   </si>
   <si>
     <t>MT09KH02</t>
+  </si>
+  <si>
+    <t>Họp nhóm xác 
+định project</t>
+  </si>
+  <si>
+    <t>các chức năng cơ bản được 
+xác định</t>
+  </si>
+  <si>
+    <t>Hoàn Thành</t>
+  </si>
+  <si>
+    <t>Cả nhóm</t>
+  </si>
+  <si>
+    <t>Viết description</t>
+  </si>
+  <si>
+    <t>Thêm xóa,thay đổi,giới 
+hạn số lượng sách</t>
+  </si>
+  <si>
+    <t>28/09/2012</t>
+  </si>
+  <si>
+    <t>Hoàn chỉnh SRS</t>
+  </si>
+  <si>
+    <t>Hoàn chỉnh thông tin về SRS</t>
+  </si>
+  <si>
+    <t>Chưa hoàn thành</t>
+  </si>
+  <si>
+    <t>Hiện thực
+ thêm/xóa sách</t>
+  </si>
+  <si>
+    <t>Hiện thực csdl và chức
+ năng thêm/xóa</t>
   </si>
 </sst>
 </file>
@@ -542,7 +573,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -567,11 +598,17 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="6">
@@ -3166,7 +3203,7 @@
   <dimension ref="A1:AMJ24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -3194,21 +3231,21 @@
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="F1" s="8" t="s">
-        <v>42</v>
-      </c>
-      <c r="G1" s="8"/>
+      <c r="F1" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="G1" s="9"/>
       <c r="P1" s="4" t="s">
         <v>3</v>
       </c>
@@ -3294,63 +3331,76 @@
         <v>31</v>
       </c>
     </row>
-    <row r="4" spans="1:29" ht="48" customHeight="1">
-      <c r="A4" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="B4" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="C4" s="9" t="s">
-        <v>34</v>
-      </c>
-      <c r="D4" s="7" t="s">
-        <v>35</v>
-      </c>
-      <c r="E4" s="7">
+    <row r="4" spans="1:29" ht="33" customHeight="1">
+      <c r="A4" s="10">
+        <v>41099</v>
+      </c>
+      <c r="B4" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="C4" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="E4" s="3">
         <v>3</v>
       </c>
-      <c r="F4" s="7">
-        <v>5</v>
-      </c>
-      <c r="G4" s="7"/>
-      <c r="H4" s="7"/>
+      <c r="F4" s="3">
+        <v>3</v>
+      </c>
+      <c r="H4" s="3" t="s">
+        <v>43</v>
+      </c>
       <c r="I4" s="7"/>
       <c r="J4" s="7"/>
       <c r="K4" s="7"/>
       <c r="L4" s="7"/>
     </row>
     <row r="5" spans="1:29" ht="28.5">
-      <c r="A5" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="B5" s="7" t="s">
-        <v>37</v>
-      </c>
-      <c r="C5" s="9" t="s">
-        <v>38</v>
-      </c>
-      <c r="D5" s="9" t="s">
-        <v>39</v>
-      </c>
-      <c r="E5" s="7">
-        <v>5</v>
-      </c>
-      <c r="F5" s="7"/>
-      <c r="G5" s="7"/>
-      <c r="H5" s="7"/>
+      <c r="A5" s="10">
+        <v>41130</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="C5" s="11" t="s">
+        <v>45</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="E5" s="3">
+        <v>2</v>
+      </c>
+      <c r="F5" s="3">
+        <v>2</v>
+      </c>
       <c r="I5" s="7"/>
       <c r="J5" s="7"/>
       <c r="K5" s="7"/>
       <c r="L5" s="7"/>
     </row>
-    <row r="6" spans="1:29">
-      <c r="A6" s="7"/>
-      <c r="B6" s="7"/>
-      <c r="C6" s="7"/>
-      <c r="D6" s="7"/>
-      <c r="E6" s="7"/>
-      <c r="F6" s="7"/>
+    <row r="6" spans="1:29" ht="57">
+      <c r="A6" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="B6" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="C6" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="D6" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="E6" s="7">
+        <v>3</v>
+      </c>
+      <c r="F6" s="7">
+        <v>5</v>
+      </c>
       <c r="G6" s="7"/>
       <c r="H6" s="7"/>
       <c r="I6" s="7"/>
@@ -3358,12 +3408,22 @@
       <c r="K6" s="7"/>
       <c r="L6" s="7"/>
     </row>
-    <row r="7" spans="1:29">
-      <c r="A7" s="7"/>
-      <c r="B7" s="7"/>
-      <c r="C7" s="7"/>
-      <c r="D7" s="7"/>
-      <c r="E7" s="7"/>
+    <row r="7" spans="1:29" ht="28.5">
+      <c r="A7" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="B7" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="C7" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="D7" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="E7" s="7">
+        <v>3</v>
+      </c>
       <c r="F7" s="7"/>
       <c r="G7" s="7"/>
       <c r="H7" s="7"/>
@@ -3386,12 +3446,22 @@
       <c r="AB7" s="4"/>
       <c r="AC7" s="4"/>
     </row>
-    <row r="8" spans="1:29">
-      <c r="A8" s="7"/>
-      <c r="B8" s="7"/>
-      <c r="C8" s="7"/>
-      <c r="D8" s="7"/>
-      <c r="E8" s="7"/>
+    <row r="8" spans="1:29" ht="28.5">
+      <c r="A8" s="10">
+        <v>41131</v>
+      </c>
+      <c r="B8" s="11" t="s">
+        <v>50</v>
+      </c>
+      <c r="C8" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="D8" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="E8" s="7">
+        <v>5</v>
+      </c>
       <c r="F8" s="7"/>
       <c r="G8" s="7"/>
       <c r="H8" s="7"/>
@@ -3443,28 +3513,12 @@
       <c r="L11" s="7"/>
     </row>
     <row r="12" spans="1:29">
-      <c r="A12" s="7"/>
-      <c r="B12" s="7"/>
-      <c r="C12" s="7"/>
-      <c r="D12" s="7"/>
-      <c r="E12" s="7"/>
-      <c r="F12" s="7"/>
-      <c r="G12" s="7"/>
-      <c r="H12" s="7"/>
       <c r="I12" s="7"/>
       <c r="J12" s="7"/>
       <c r="K12" s="7"/>
       <c r="L12" s="7"/>
     </row>
     <row r="13" spans="1:29">
-      <c r="A13" s="7"/>
-      <c r="B13" s="7"/>
-      <c r="C13" s="7"/>
-      <c r="D13" s="7"/>
-      <c r="E13" s="7"/>
-      <c r="F13" s="7"/>
-      <c r="G13" s="7"/>
-      <c r="H13" s="7"/>
       <c r="I13" s="7"/>
       <c r="J13" s="7"/>
       <c r="K13" s="7"/>
@@ -3676,8 +3730,8 @@
       <c r="E1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="F1" s="8"/>
-      <c r="G1" s="8"/>
+      <c r="F1" s="9"/>
+      <c r="G1" s="9"/>
       <c r="P1" s="4" t="s">
         <v>3</v>
       </c>
